--- a/example/Input_from_Diadfit_fitted_2025-11-19.xlsx
+++ b/example/Input_from_Diadfit_fitted_2025-11-19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoregon-my.sharepoint.com/personal/ccauley_uoregon_edu/Documents/Lab_Work/Olivine Deformation/Raman/WITio_FI_radii/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_32B9414BD3512A0F62355476585DCE3A87455541" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDB251CF-99A4-A947-8258-879767AF38AD}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_32B9414BD3512A0F62355476585DCE3A87455541" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7D6383F-DFCF-0D43-BB8B-6A056217F32F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
   <si>
     <t>filename</t>
   </si>
@@ -363,16 +363,6 @@
   </si>
   <si>
     <t>Spline</t>
-  </si>
-  <si>
-    <t>G_U20-1_15_24_01</t>
-  </si>
-  <si>
-    <t>SupCrit, Med density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:40:55 PM
-</t>
   </si>
 </sst>
 </file>
@@ -736,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CS5"/>
+  <dimension ref="A1:CS4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1739,227 +1729,6 @@
         <v>0.99774643288489218</v>
       </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5">
-        <v>0.24105693213459739</v>
-      </c>
-      <c r="D5">
-        <v>4.8603355029758896E-3</v>
-      </c>
-      <c r="E5">
-        <v>4.2492900993238436E-3</v>
-      </c>
-      <c r="F5">
-        <v>2.3593208457681758E-3</v>
-      </c>
-      <c r="G5">
-        <v>103.3428979123054</v>
-      </c>
-      <c r="H5">
-        <v>1.0238678594672781E-2</v>
-      </c>
-      <c r="I5">
-        <v>6.1428905550542368E-4</v>
-      </c>
-      <c r="J5">
-        <v>1.0243350550958499E-2</v>
-      </c>
-      <c r="K5">
-        <v>9.9949999999999992</v>
-      </c>
-      <c r="L5">
-        <v>1324.9639999999999</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>97</v>
-      </c>
-      <c r="P5" t="s">
-        <v>114</v>
-      </c>
-      <c r="S5">
-        <v>0.23482872176238351</v>
-      </c>
-      <c r="T5">
-        <v>5.9285352246299479E-3</v>
-      </c>
-      <c r="U5">
-        <v>0.24105693213459739</v>
-      </c>
-      <c r="V5">
-        <v>4.8603355029758896E-3</v>
-      </c>
-      <c r="W5">
-        <v>0.13759372280833301</v>
-      </c>
-      <c r="X5">
-        <v>7.0599478614569184E-3</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z5">
-        <v>103.5766405522763</v>
-      </c>
-      <c r="AA5">
-        <v>1.0243350550958499E-2</v>
-      </c>
-      <c r="AB5">
-        <v>1284.7058279058331</v>
-      </c>
-      <c r="AC5">
-        <v>9.3540328555422794E-3</v>
-      </c>
-      <c r="AD5">
-        <v>295.56648917961559</v>
-      </c>
-      <c r="AE5">
-        <v>1284.7058279058331</v>
-      </c>
-      <c r="AF5">
-        <v>619.13161109185421</v>
-      </c>
-      <c r="AG5">
-        <v>0.75882212481210376</v>
-      </c>
-      <c r="AH5">
-        <v>3.5441048203587648</v>
-      </c>
-      <c r="AI5">
-        <v>0.70977048254207409</v>
-      </c>
-      <c r="AJ5">
-        <v>1.517644249624208</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL5">
-        <v>1388.282518460609</v>
-      </c>
-      <c r="AM5">
-        <v>4.1747215293067496E-3</v>
-      </c>
-      <c r="AN5">
-        <v>578.3288484778908</v>
-      </c>
-      <c r="AO5">
-        <v>1388.282468458109</v>
-      </c>
-      <c r="AP5">
-        <v>949.90831104611493</v>
-      </c>
-      <c r="AQ5">
-        <v>0.60111846727186813</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>3.666016618182586</v>
-      </c>
-      <c r="AT5">
-        <v>0.68534359450329707</v>
-      </c>
-      <c r="AU5">
-        <v>1.202236934543736</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ5">
-        <v>1409.7323718551791</v>
-      </c>
-      <c r="BA5">
-        <v>79.946860529341393</v>
-      </c>
-      <c r="BB5">
-        <v>0.74008809974584544</v>
-      </c>
-      <c r="BL5">
-        <v>1.0334821428570371</v>
-      </c>
-      <c r="BM5">
-        <v>1.128712871287078</v>
-      </c>
-      <c r="BN5">
-        <v>5.0813981572077907E-2</v>
-      </c>
-      <c r="BO5">
-        <v>5.1346966086603142E-3</v>
-      </c>
-      <c r="BP5">
-        <v>1.228985507246277</v>
-      </c>
-      <c r="BQ5">
-        <v>1.243478260869598</v>
-      </c>
-      <c r="BR5">
-        <v>0.27529483428670598</v>
-      </c>
-      <c r="BS5">
-        <v>2.07881197299411E-3</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>104</v>
-      </c>
-      <c r="BY5">
-        <v>18</v>
-      </c>
-      <c r="BZ5">
-        <v>60</v>
-      </c>
-      <c r="CA5">
-        <v>4</v>
-      </c>
-      <c r="CB5">
-        <v>50</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>105</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE5">
-        <v>60055</v>
-      </c>
-      <c r="CP5">
-        <v>60055</v>
-      </c>
-      <c r="CQ5">
-        <v>0.99774328807417845</v>
-      </c>
-      <c r="CR5">
-        <v>0.9977373573058872</v>
-      </c>
-      <c r="CS5">
-        <v>0.9977492188424697</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
